--- a/data_year/zb/文化/电视节目进出口情况/电视节目出口量.xlsx
+++ b/data_year/zb/文化/电视节目进出口情况/电视节目出口量.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BI10"/>
+  <dimension ref="A1:BI8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -738,7 +738,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
@@ -769,35 +769,35 @@
       <c r="AA2" t="inlineStr"/>
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="n">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="AD2" t="n">
-        <v>801</v>
+        <v>134</v>
       </c>
       <c r="AE2" t="n">
-        <v>846</v>
+        <v>192</v>
       </c>
       <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="inlineStr"/>
       <c r="AH2" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AI2" t="n">
-        <v>239</v>
+        <v>338</v>
       </c>
       <c r="AJ2" t="n">
-        <v>346</v>
+        <v>505</v>
       </c>
       <c r="AK2" t="inlineStr"/>
       <c r="AL2" t="inlineStr"/>
       <c r="AM2" t="n">
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="AN2" t="n">
-        <v>898</v>
+        <v>2838</v>
       </c>
       <c r="AO2" t="n">
-        <v>1464</v>
+        <v>3032</v>
       </c>
       <c r="AP2" t="inlineStr"/>
       <c r="AQ2" t="inlineStr"/>
@@ -807,1332 +807,1132 @@
       <c r="AU2" t="inlineStr"/>
       <c r="AV2" t="inlineStr"/>
       <c r="AW2" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="AX2" t="n">
-        <v>542</v>
+        <v>81</v>
       </c>
       <c r="AY2" t="n">
-        <v>500</v>
+        <v>113</v>
       </c>
       <c r="AZ2" t="inlineStr"/>
       <c r="BA2" t="inlineStr"/>
       <c r="BB2" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BC2" t="n">
-        <v>304</v>
+        <v>521</v>
       </c>
       <c r="BD2" t="n">
-        <v>410</v>
+        <v>668</v>
       </c>
       <c r="BE2" t="inlineStr"/>
       <c r="BF2" t="n">
-        <v>149</v>
+        <v>288</v>
       </c>
       <c r="BG2" t="n">
-        <v>6662</v>
+        <v>12362</v>
       </c>
       <c r="BH2" t="n">
-        <v>10300</v>
+        <v>13762</v>
       </c>
       <c r="BI2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
+          <t>2011年</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>4630</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2003</v>
+      </c>
+      <c r="D3" t="n">
+        <v>78</v>
+      </c>
+      <c r="E3" t="n">
+        <v>4851</v>
+      </c>
+      <c r="F3" t="n">
+        <v>5155</v>
+      </c>
+      <c r="G3" t="n">
+        <v>506</v>
+      </c>
+      <c r="H3" t="n">
+        <v>432</v>
+      </c>
+      <c r="I3" t="n">
+        <v>39</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1750</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2318</v>
+      </c>
+      <c r="L3" t="n">
+        <v>222</v>
+      </c>
+      <c r="M3" t="n">
+        <v>229</v>
+      </c>
+      <c r="N3" t="n">
+        <v>28</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1561</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2775</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>380</v>
+      </c>
+      <c r="R3" t="n">
+        <v>3316</v>
+      </c>
+      <c r="S3" t="n">
+        <v>184</v>
+      </c>
+      <c r="T3" t="n">
+        <v>9698</v>
+      </c>
+      <c r="U3" t="n">
+        <v>14821</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1215</v>
+      </c>
       <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="inlineStr"/>
+      <c r="X3" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>67</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>52</v>
+      </c>
       <c r="AA3" t="inlineStr"/>
-      <c r="AB3" t="inlineStr"/>
+      <c r="AB3" t="n">
+        <v>4</v>
+      </c>
       <c r="AC3" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AD3" t="n">
-        <v>384</v>
+        <v>573</v>
       </c>
       <c r="AE3" t="n">
-        <v>367</v>
-      </c>
-      <c r="AF3" t="inlineStr"/>
-      <c r="AG3" t="inlineStr"/>
+        <v>625</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>63</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>343</v>
+      </c>
       <c r="AH3" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AI3" t="n">
-        <v>168</v>
+        <v>130</v>
       </c>
       <c r="AJ3" t="n">
-        <v>278</v>
-      </c>
-      <c r="AK3" t="inlineStr"/>
-      <c r="AL3" t="inlineStr"/>
+        <v>888</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>433</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>805</v>
+      </c>
       <c r="AM3" t="n">
-        <v>18</v>
+        <v>87</v>
       </c>
       <c r="AN3" t="n">
-        <v>805</v>
+        <v>3396</v>
       </c>
       <c r="AO3" t="n">
-        <v>1372</v>
-      </c>
-      <c r="AP3" t="inlineStr"/>
-      <c r="AQ3" t="inlineStr"/>
-      <c r="AR3" t="inlineStr"/>
-      <c r="AS3" t="inlineStr"/>
-      <c r="AT3" t="inlineStr"/>
-      <c r="AU3" t="inlineStr"/>
-      <c r="AV3" t="inlineStr"/>
+        <v>8455</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>1019</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>948</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>90</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>3495</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>8680</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>1019</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>23</v>
+      </c>
       <c r="AW3" t="n">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="AX3" t="n">
-        <v>37</v>
+        <v>1034</v>
       </c>
       <c r="AY3" t="n">
-        <v>48</v>
-      </c>
-      <c r="AZ3" t="inlineStr"/>
-      <c r="BA3" t="inlineStr"/>
+        <v>1294</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>233</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>325</v>
+      </c>
       <c r="BB3" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="BC3" t="n">
-        <v>475</v>
+        <v>682</v>
       </c>
       <c r="BD3" t="n">
-        <v>525</v>
-      </c>
-      <c r="BE3" t="inlineStr"/>
+        <v>1039</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>42</v>
+      </c>
       <c r="BF3" t="n">
-        <v>128</v>
+        <v>305</v>
       </c>
       <c r="BG3" t="n">
-        <v>5825</v>
+        <v>14424</v>
       </c>
       <c r="BH3" t="n">
-        <v>10238</v>
-      </c>
-      <c r="BI3" t="inlineStr"/>
+        <v>25735</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>2900</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="inlineStr"/>
-      <c r="Z4" t="inlineStr"/>
-      <c r="AA4" t="inlineStr"/>
+          <t>2012年</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1678</v>
+      </c>
+      <c r="C4" t="n">
+        <v>325</v>
+      </c>
+      <c r="D4" t="n">
+        <v>78</v>
+      </c>
+      <c r="E4" t="n">
+        <v>3472</v>
+      </c>
+      <c r="F4" t="n">
+        <v>5554</v>
+      </c>
+      <c r="G4" t="n">
+        <v>364</v>
+      </c>
+      <c r="H4" t="n">
+        <v>199</v>
+      </c>
+      <c r="I4" t="n">
+        <v>45</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2095</v>
+      </c>
+      <c r="K4" t="n">
+        <v>5442</v>
+      </c>
+      <c r="L4" t="n">
+        <v>685</v>
+      </c>
+      <c r="M4" t="n">
+        <v>306</v>
+      </c>
+      <c r="N4" t="n">
+        <v>42</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1861</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2775</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>374</v>
+      </c>
+      <c r="R4" t="n">
+        <v>961</v>
+      </c>
+      <c r="S4" t="n">
+        <v>199</v>
+      </c>
+      <c r="T4" t="n">
+        <v>8521</v>
+      </c>
+      <c r="U4" t="n">
+        <v>14949</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1545</v>
+      </c>
+      <c r="W4" t="n">
+        <v>28</v>
+      </c>
+      <c r="X4" t="n">
+        <v>39</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>3876</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>3179</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>264</v>
+      </c>
       <c r="AB4" t="inlineStr"/>
       <c r="AC4" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AD4" t="n">
-        <v>134</v>
+        <v>257</v>
       </c>
       <c r="AE4" t="n">
-        <v>192</v>
-      </c>
-      <c r="AF4" t="inlineStr"/>
-      <c r="AG4" t="inlineStr"/>
+        <v>242</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>239</v>
+      </c>
       <c r="AH4" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="AI4" t="n">
-        <v>338</v>
+        <v>537</v>
       </c>
       <c r="AJ4" t="n">
-        <v>505</v>
-      </c>
-      <c r="AK4" t="inlineStr"/>
-      <c r="AL4" t="inlineStr"/>
+        <v>916</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>59</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>383</v>
+      </c>
       <c r="AM4" t="n">
-        <v>89</v>
+        <v>48</v>
       </c>
       <c r="AN4" t="n">
-        <v>2838</v>
+        <v>1759</v>
       </c>
       <c r="AO4" t="n">
-        <v>3032</v>
-      </c>
-      <c r="AP4" t="inlineStr"/>
-      <c r="AQ4" t="inlineStr"/>
-      <c r="AR4" t="inlineStr"/>
-      <c r="AS4" t="inlineStr"/>
-      <c r="AT4" t="inlineStr"/>
-      <c r="AU4" t="inlineStr"/>
+        <v>15538</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>498</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>449</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>57</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>2063</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>18246</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>498</v>
+      </c>
       <c r="AV4" t="inlineStr"/>
       <c r="AW4" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="AX4" t="n">
-        <v>81</v>
+        <v>332</v>
       </c>
       <c r="AY4" t="n">
-        <v>113</v>
-      </c>
-      <c r="AZ4" t="inlineStr"/>
-      <c r="BA4" t="inlineStr"/>
+        <v>283</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>53</v>
+      </c>
       <c r="BB4" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BC4" t="n">
-        <v>521</v>
+        <v>590</v>
       </c>
       <c r="BD4" t="n">
-        <v>668</v>
-      </c>
-      <c r="BE4" t="inlineStr"/>
+        <v>695</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>115</v>
+      </c>
       <c r="BF4" t="n">
-        <v>288</v>
+        <v>326</v>
       </c>
       <c r="BG4" t="n">
-        <v>12362</v>
+        <v>15329</v>
       </c>
       <c r="BH4" t="n">
-        <v>13762</v>
-      </c>
-      <c r="BI4" t="inlineStr"/>
+        <v>37573</v>
+      </c>
+      <c r="BI4" t="n">
+        <v>2369</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>426</v>
+        <v>2507</v>
       </c>
       <c r="C5" t="n">
-        <v>260</v>
+        <v>422</v>
       </c>
       <c r="D5" t="n">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="E5" t="n">
-        <v>4851</v>
+        <v>3798</v>
       </c>
       <c r="F5" t="n">
-        <v>5217</v>
-      </c>
-      <c r="G5" t="inlineStr"/>
+        <v>3549</v>
+      </c>
+      <c r="G5" t="n">
+        <v>155</v>
+      </c>
       <c r="H5" t="n">
-        <v>27</v>
+        <v>190</v>
       </c>
       <c r="I5" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J5" t="n">
-        <v>1750</v>
+        <v>1609</v>
       </c>
       <c r="K5" t="n">
-        <v>2318</v>
+        <v>1782</v>
       </c>
       <c r="L5" t="n">
-        <v>37</v>
+        <v>390</v>
       </c>
       <c r="M5" t="n">
-        <v>109</v>
+        <v>240</v>
       </c>
       <c r="N5" t="n">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="O5" t="n">
-        <v>1561</v>
+        <v>731</v>
       </c>
       <c r="P5" t="n">
-        <v>2775</v>
+        <v>1481</v>
       </c>
       <c r="Q5" t="n">
-        <v>5</v>
+        <v>294</v>
       </c>
       <c r="R5" t="n">
-        <v>261</v>
+        <v>1018</v>
       </c>
       <c r="S5" t="n">
-        <v>152</v>
+        <v>177</v>
       </c>
       <c r="T5" t="n">
-        <v>8381</v>
+        <v>7541</v>
       </c>
       <c r="U5" t="n">
-        <v>11106</v>
+        <v>8136</v>
       </c>
       <c r="V5" t="n">
-        <v>40</v>
+        <v>943</v>
       </c>
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Y5" t="n">
-        <v>67</v>
+        <v>201</v>
       </c>
       <c r="Z5" t="n">
-        <v>52</v>
-      </c>
-      <c r="AA5" t="inlineStr"/>
+        <v>210</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>10</v>
+      </c>
       <c r="AB5" t="n">
-        <v>1</v>
+        <v>121</v>
       </c>
       <c r="AC5" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AD5" t="n">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="AE5" t="n">
-        <v>625</v>
+        <v>561</v>
       </c>
       <c r="AF5" t="n">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="AG5" t="n">
-        <v>79</v>
+        <v>223</v>
       </c>
       <c r="AH5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AI5" t="n">
-        <v>130</v>
+        <v>184</v>
       </c>
       <c r="AJ5" t="n">
-        <v>888</v>
+        <v>1065</v>
       </c>
       <c r="AK5" t="n">
-        <v>38</v>
+        <v>154</v>
       </c>
       <c r="AL5" t="n">
-        <v>103</v>
+        <v>417</v>
       </c>
       <c r="AM5" t="n">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="AN5" t="n">
-        <v>3396</v>
+        <v>1564</v>
       </c>
       <c r="AO5" t="n">
-        <v>8455</v>
-      </c>
-      <c r="AP5" t="inlineStr"/>
+        <v>9380</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>1809</v>
+      </c>
       <c r="AQ5" t="n">
-        <v>155</v>
+        <v>417</v>
       </c>
       <c r="AR5" t="n">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="AS5" t="n">
-        <v>3337</v>
+        <v>2840</v>
       </c>
       <c r="AT5" t="n">
-        <v>6949</v>
-      </c>
-      <c r="AU5" t="inlineStr"/>
+        <v>10617</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>2055</v>
+      </c>
       <c r="AV5" t="n">
-        <v>3</v>
+        <v>850</v>
       </c>
       <c r="AW5" t="n">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="AX5" t="n">
-        <v>1034</v>
+        <v>414</v>
       </c>
       <c r="AY5" t="n">
-        <v>1294</v>
+        <v>1240</v>
       </c>
       <c r="AZ5" t="n">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="BA5" t="n">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="BB5" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BC5" t="n">
-        <v>682</v>
+        <v>828</v>
       </c>
       <c r="BD5" t="n">
-        <v>1039</v>
+        <v>763</v>
       </c>
       <c r="BE5" t="n">
-        <v>33</v>
+        <v>97</v>
       </c>
       <c r="BF5" t="n">
-        <v>298</v>
+        <v>243</v>
       </c>
       <c r="BG5" t="n">
-        <v>14001</v>
+        <v>11180</v>
       </c>
       <c r="BH5" t="n">
-        <v>25657</v>
+        <v>21270</v>
       </c>
       <c r="BI5" t="n">
-        <v>111</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1678</v>
+        <v>2627.8166666667</v>
       </c>
       <c r="C6" t="n">
-        <v>325</v>
+        <v>136.8333333333</v>
       </c>
       <c r="D6" t="n">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="E6" t="n">
-        <v>3472</v>
+        <v>3897</v>
       </c>
       <c r="F6" t="n">
-        <v>5554</v>
-      </c>
-      <c r="G6" t="n">
-        <v>364</v>
-      </c>
+        <v>3410.0833333333</v>
+      </c>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="n">
-        <v>199</v>
+        <v>183.9333333333</v>
       </c>
       <c r="I6" t="n">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="J6" t="n">
-        <v>2095</v>
+        <v>3183</v>
       </c>
       <c r="K6" t="n">
-        <v>5442</v>
+        <v>2993.5166666667</v>
       </c>
       <c r="L6" t="n">
-        <v>685</v>
+        <v>401.5833333333</v>
       </c>
       <c r="M6" t="n">
-        <v>306</v>
+        <v>229.85</v>
       </c>
       <c r="N6" t="n">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="O6" t="n">
-        <v>1861</v>
+        <v>1029</v>
       </c>
       <c r="P6" t="n">
-        <v>2775</v>
+        <v>1177.9</v>
       </c>
       <c r="Q6" t="n">
-        <v>374</v>
+        <v>36.7</v>
       </c>
       <c r="R6" t="n">
-        <v>961</v>
+        <v>1794.55</v>
       </c>
       <c r="S6" t="n">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="T6" t="n">
-        <v>8521</v>
+        <v>9239</v>
       </c>
       <c r="U6" t="n">
-        <v>14949</v>
+        <v>11980.25</v>
       </c>
       <c r="V6" t="n">
-        <v>1545</v>
+        <v>468.95</v>
       </c>
       <c r="W6" t="n">
-        <v>28</v>
+        <v>84.3666666667</v>
       </c>
       <c r="X6" t="n">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="Y6" t="n">
-        <v>3876</v>
+        <v>161</v>
       </c>
       <c r="Z6" t="n">
-        <v>3179</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>264</v>
-      </c>
-      <c r="AB6" t="inlineStr"/>
+        <v>208</v>
+      </c>
+      <c r="AA6" t="inlineStr"/>
+      <c r="AB6" t="n">
+        <v>8.8833333333</v>
+      </c>
       <c r="AC6" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AD6" t="n">
-        <v>257</v>
+        <v>336</v>
       </c>
       <c r="AE6" t="n">
-        <v>242</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>7</v>
-      </c>
+        <v>261.0166666667</v>
+      </c>
+      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="n">
-        <v>239</v>
+        <v>40.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="AI6" t="n">
-        <v>537</v>
+        <v>361</v>
       </c>
       <c r="AJ6" t="n">
-        <v>916</v>
+        <v>695.3333333332999</v>
       </c>
       <c r="AK6" t="n">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="AL6" t="n">
-        <v>383</v>
+        <v>419.0666666667</v>
       </c>
       <c r="AM6" t="n">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="AN6" t="n">
-        <v>1759</v>
+        <v>992</v>
       </c>
       <c r="AO6" t="n">
-        <v>15538</v>
+        <v>4558.9</v>
       </c>
       <c r="AP6" t="n">
-        <v>498</v>
+        <v>239.55</v>
       </c>
       <c r="AQ6" t="n">
-        <v>449</v>
+        <v>689.3333333332999</v>
       </c>
       <c r="AR6" t="n">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="AS6" t="n">
-        <v>2063</v>
+        <v>3908</v>
       </c>
       <c r="AT6" t="n">
-        <v>18246</v>
+        <v>8471.583333333299</v>
       </c>
       <c r="AU6" t="n">
-        <v>498</v>
-      </c>
-      <c r="AV6" t="inlineStr"/>
+        <v>956.55</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>19.0666666667</v>
+      </c>
       <c r="AW6" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="AX6" t="n">
-        <v>332</v>
+        <v>155</v>
       </c>
       <c r="AY6" t="n">
-        <v>283</v>
+        <v>314.4833333333</v>
       </c>
       <c r="AZ6" t="n">
-        <v>3</v>
+        <v>105.5</v>
       </c>
       <c r="BA6" t="n">
-        <v>53</v>
+        <v>2.8666666667</v>
       </c>
       <c r="BB6" t="n">
         <v>14</v>
       </c>
       <c r="BC6" t="n">
-        <v>590</v>
+        <v>630</v>
       </c>
       <c r="BD6" t="n">
-        <v>695</v>
+        <v>504.75</v>
       </c>
       <c r="BE6" t="n">
-        <v>115</v>
+        <v>28</v>
       </c>
       <c r="BF6" t="n">
-        <v>326</v>
+        <v>296</v>
       </c>
       <c r="BG6" t="n">
-        <v>15329</v>
+        <v>13824</v>
       </c>
       <c r="BH6" t="n">
-        <v>37573</v>
+        <v>21669.65</v>
       </c>
       <c r="BI6" t="n">
-        <v>2369</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2507</v>
+        <v>3091</v>
       </c>
       <c r="C7" t="n">
-        <v>422</v>
+        <v>365</v>
       </c>
       <c r="D7" t="n">
-        <v>93</v>
+        <v>129</v>
       </c>
       <c r="E7" t="n">
-        <v>3798</v>
+        <v>6522</v>
       </c>
       <c r="F7" t="n">
-        <v>3549</v>
+        <v>7355</v>
       </c>
       <c r="G7" t="n">
-        <v>155</v>
+        <v>120</v>
       </c>
       <c r="H7" t="n">
-        <v>190</v>
+        <v>246</v>
       </c>
       <c r="I7" t="n">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="J7" t="n">
-        <v>1609</v>
+        <v>2603</v>
       </c>
       <c r="K7" t="n">
-        <v>1782</v>
+        <v>2872</v>
       </c>
       <c r="L7" t="n">
-        <v>390</v>
+        <v>187</v>
       </c>
       <c r="M7" t="n">
-        <v>240</v>
+        <v>222</v>
       </c>
       <c r="N7" t="n">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="O7" t="n">
-        <v>731</v>
+        <v>1638</v>
       </c>
       <c r="P7" t="n">
-        <v>1481</v>
+        <v>3428</v>
       </c>
       <c r="Q7" t="n">
-        <v>294</v>
+        <v>309</v>
       </c>
       <c r="R7" t="n">
-        <v>1018</v>
+        <v>2512</v>
       </c>
       <c r="S7" t="n">
-        <v>177</v>
+        <v>283</v>
       </c>
       <c r="T7" t="n">
-        <v>7541</v>
+        <v>12661</v>
       </c>
       <c r="U7" t="n">
-        <v>8136</v>
+        <v>16913</v>
       </c>
       <c r="V7" t="n">
-        <v>943</v>
-      </c>
-      <c r="W7" t="inlineStr"/>
+        <v>701</v>
+      </c>
+      <c r="W7" t="n">
+        <v>91</v>
+      </c>
       <c r="X7" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>49</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>129</v>
+      </c>
+      <c r="AA7" t="inlineStr"/>
+      <c r="AB7" t="inlineStr"/>
+      <c r="AC7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>250</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>219</v>
+      </c>
+      <c r="AF7" t="n">
         <v>5</v>
       </c>
-      <c r="Y7" t="n">
-        <v>201</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>210</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>10</v>
-      </c>
-      <c r="AB7" t="n">
+      <c r="AG7" t="n">
+        <v>141</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>373</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>594</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>148</v>
+      </c>
+      <c r="AL7" t="n">
         <v>121</v>
       </c>
-      <c r="AC7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>575</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>561</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>7</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>223</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>5</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>184</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>1065</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>154</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>417</v>
-      </c>
       <c r="AM7" t="n">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="AN7" t="n">
-        <v>1564</v>
+        <v>1189</v>
       </c>
       <c r="AO7" t="n">
-        <v>9380</v>
+        <v>5761</v>
       </c>
       <c r="AP7" t="n">
-        <v>1809</v>
+        <v>262</v>
       </c>
       <c r="AQ7" t="n">
-        <v>417</v>
+        <v>185</v>
       </c>
       <c r="AR7" t="n">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="AS7" t="n">
-        <v>2840</v>
+        <v>1982</v>
       </c>
       <c r="AT7" t="n">
-        <v>10617</v>
+        <v>6824</v>
       </c>
       <c r="AU7" t="n">
-        <v>2055</v>
+        <v>365</v>
       </c>
       <c r="AV7" t="n">
-        <v>850</v>
+        <v>162</v>
       </c>
       <c r="AW7" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="AX7" t="n">
-        <v>414</v>
+        <v>837</v>
       </c>
       <c r="AY7" t="n">
-        <v>1240</v>
+        <v>891</v>
       </c>
       <c r="AZ7" t="n">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="BA7" t="n">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="BB7" t="n">
+        <v>20</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>923</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>784</v>
+      </c>
+      <c r="BE7" t="n">
         <v>19</v>
       </c>
-      <c r="BC7" t="n">
-        <v>828</v>
-      </c>
-      <c r="BD7" t="n">
-        <v>763</v>
-      </c>
-      <c r="BE7" t="n">
-        <v>97</v>
-      </c>
       <c r="BF7" t="n">
-        <v>243</v>
+        <v>381</v>
       </c>
       <c r="BG7" t="n">
-        <v>11180</v>
+        <v>15902</v>
       </c>
       <c r="BH7" t="n">
-        <v>21270</v>
+        <v>25352</v>
       </c>
       <c r="BI7" t="n">
-        <v>3241</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2014年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2627.8166666667</v>
+        <v>1406.883333</v>
       </c>
       <c r="C8" t="n">
-        <v>136.8333333333</v>
+        <v>262.9333333</v>
       </c>
       <c r="D8" t="n">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="E8" t="n">
-        <v>3897</v>
+        <v>6809</v>
       </c>
       <c r="F8" t="n">
-        <v>3410.0833333333</v>
-      </c>
-      <c r="G8" t="inlineStr"/>
+        <v>6159.883333</v>
+      </c>
+      <c r="G8" t="n">
+        <v>228.75</v>
+      </c>
       <c r="H8" t="n">
-        <v>183.9333333333</v>
+        <v>130</v>
       </c>
       <c r="I8" t="n">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="J8" t="n">
-        <v>3183</v>
+        <v>3155</v>
       </c>
       <c r="K8" t="n">
-        <v>2993.5166666667</v>
+        <v>2775.5</v>
       </c>
       <c r="L8" t="n">
-        <v>401.5833333333</v>
+        <v>141.1333333</v>
       </c>
       <c r="M8" t="n">
-        <v>229.85</v>
+        <v>111.9666667</v>
       </c>
       <c r="N8" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="O8" t="n">
-        <v>1029</v>
+        <v>1153</v>
       </c>
       <c r="P8" t="n">
-        <v>1177.9</v>
+        <v>1208.9</v>
       </c>
       <c r="Q8" t="n">
-        <v>36.7</v>
+        <v>74.16666667</v>
       </c>
       <c r="R8" t="n">
-        <v>1794.55</v>
+        <v>648.2333333</v>
       </c>
       <c r="S8" t="n">
-        <v>211</v>
+        <v>341</v>
       </c>
       <c r="T8" t="n">
-        <v>9239</v>
+        <v>22349</v>
       </c>
       <c r="U8" t="n">
-        <v>11980.25</v>
+        <v>21612.5</v>
       </c>
       <c r="V8" t="n">
-        <v>468.95</v>
+        <v>703.8333333</v>
       </c>
       <c r="W8" t="n">
-        <v>84.3666666667</v>
+        <v>2</v>
       </c>
       <c r="X8" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="Y8" t="n">
-        <v>161</v>
+        <v>298</v>
       </c>
       <c r="Z8" t="n">
-        <v>208</v>
+        <v>261.8666667</v>
       </c>
       <c r="AA8" t="inlineStr"/>
-      <c r="AB8" t="n">
-        <v>8.8833333333</v>
-      </c>
+      <c r="AB8" t="inlineStr"/>
       <c r="AC8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>544</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>450.3333333</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>0.016666667</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>531.15</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>769</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>3300.45</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>50.76666667</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>153.3166667</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>806</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>3318.2</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>250.6333333</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>153.5666667</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>46</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>1752</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>4097.533333</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>260.75</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>71.93333333</v>
+      </c>
+      <c r="AW8" t="n">
         <v>6</v>
       </c>
-      <c r="AD8" t="n">
-        <v>336</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>261.0166666667</v>
-      </c>
-      <c r="AF8" t="inlineStr"/>
-      <c r="AG8" t="n">
-        <v>40.5</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>361</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>695.3333333332999</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>419.0666666667</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>30</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>992</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>4558.9</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>239.55</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>689.3333333332999</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>66</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>3908</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>8471.583333333299</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>956.55</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>19.0666666667</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>4</v>
-      </c>
       <c r="AX8" t="n">
-        <v>155</v>
+        <v>287</v>
       </c>
       <c r="AY8" t="n">
-        <v>314.4833333333</v>
+        <v>347.0333333</v>
       </c>
       <c r="AZ8" t="n">
-        <v>105.5</v>
+        <v>41.75</v>
       </c>
       <c r="BA8" t="n">
-        <v>2.8666666667</v>
+        <v>6</v>
       </c>
       <c r="BB8" t="n">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="BC8" t="n">
-        <v>630</v>
+        <v>1443</v>
       </c>
       <c r="BD8" t="n">
-        <v>504.75</v>
+        <v>1207.383333</v>
       </c>
       <c r="BE8" t="n">
-        <v>28</v>
+        <v>34.26666667</v>
       </c>
       <c r="BF8" t="n">
-        <v>296</v>
+        <v>419</v>
       </c>
       <c r="BG8" t="n">
-        <v>13824</v>
+        <v>25455</v>
       </c>
       <c r="BH8" t="n">
-        <v>21669.65</v>
+        <v>29619.38</v>
       </c>
       <c r="BI8" t="n">
-        <v>1546</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>3091</v>
-      </c>
-      <c r="C9" t="n">
-        <v>365</v>
-      </c>
-      <c r="D9" t="n">
-        <v>129</v>
-      </c>
-      <c r="E9" t="n">
-        <v>6522</v>
-      </c>
-      <c r="F9" t="n">
-        <v>7355</v>
-      </c>
-      <c r="G9" t="n">
-        <v>120</v>
-      </c>
-      <c r="H9" t="n">
-        <v>246</v>
-      </c>
-      <c r="I9" t="n">
-        <v>68</v>
-      </c>
-      <c r="J9" t="n">
-        <v>2603</v>
-      </c>
-      <c r="K9" t="n">
-        <v>2872</v>
-      </c>
-      <c r="L9" t="n">
-        <v>187</v>
-      </c>
-      <c r="M9" t="n">
-        <v>222</v>
-      </c>
-      <c r="N9" t="n">
-        <v>44</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1638</v>
-      </c>
-      <c r="P9" t="n">
-        <v>3428</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>309</v>
-      </c>
-      <c r="R9" t="n">
-        <v>2512</v>
-      </c>
-      <c r="S9" t="n">
-        <v>283</v>
-      </c>
-      <c r="T9" t="n">
-        <v>12661</v>
-      </c>
-      <c r="U9" t="n">
-        <v>16913</v>
-      </c>
-      <c r="V9" t="n">
-        <v>701</v>
-      </c>
-      <c r="W9" t="n">
-        <v>91</v>
-      </c>
-      <c r="X9" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>49</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>129</v>
-      </c>
-      <c r="AA9" t="inlineStr"/>
-      <c r="AB9" t="inlineStr"/>
-      <c r="AC9" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>250</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>219</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>5</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>141</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>373</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>594</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>148</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>121</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>31</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>1189</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>5761</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>262</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>185</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>1982</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>6824</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>365</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>162</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>22</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>837</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>891</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>19</v>
-      </c>
-      <c r="BA9" t="n">
-        <v>20</v>
-      </c>
-      <c r="BB9" t="n">
-        <v>20</v>
-      </c>
-      <c r="BC9" t="n">
-        <v>923</v>
-      </c>
-      <c r="BD9" t="n">
-        <v>784</v>
-      </c>
-      <c r="BE9" t="n">
-        <v>19</v>
-      </c>
-      <c r="BF9" t="n">
-        <v>381</v>
-      </c>
-      <c r="BG9" t="n">
-        <v>15902</v>
-      </c>
-      <c r="BH9" t="n">
-        <v>25352</v>
-      </c>
-      <c r="BI9" t="n">
-        <v>1233</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>1406.883333</v>
-      </c>
-      <c r="C10" t="n">
-        <v>262.9333333</v>
-      </c>
-      <c r="D10" t="n">
-        <v>107</v>
-      </c>
-      <c r="E10" t="n">
-        <v>6809</v>
-      </c>
-      <c r="F10" t="n">
-        <v>6159.883333</v>
-      </c>
-      <c r="G10" t="n">
-        <v>228.75</v>
-      </c>
-      <c r="H10" t="n">
-        <v>130</v>
-      </c>
-      <c r="I10" t="n">
-        <v>75</v>
-      </c>
-      <c r="J10" t="n">
-        <v>3155</v>
-      </c>
-      <c r="K10" t="n">
-        <v>2775.5</v>
-      </c>
-      <c r="L10" t="n">
-        <v>141.1333333</v>
-      </c>
-      <c r="M10" t="n">
-        <v>111.9666667</v>
-      </c>
-      <c r="N10" t="n">
-        <v>29</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1153</v>
-      </c>
-      <c r="P10" t="n">
-        <v>1208.9</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>74.16666667</v>
-      </c>
-      <c r="R10" t="n">
-        <v>648.2333333</v>
-      </c>
-      <c r="S10" t="n">
-        <v>341</v>
-      </c>
-      <c r="T10" t="n">
-        <v>22349</v>
-      </c>
-      <c r="U10" t="n">
-        <v>21612.5</v>
-      </c>
-      <c r="V10" t="n">
-        <v>703.8333333</v>
-      </c>
-      <c r="W10" t="n">
-        <v>2</v>
-      </c>
-      <c r="X10" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>298</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>261.8666667</v>
-      </c>
-      <c r="AA10" t="inlineStr"/>
-      <c r="AB10" t="inlineStr"/>
-      <c r="AC10" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>544</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>450.3333333</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>0.016666667</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>531.15</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>18</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>769</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>3300.45</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>50.76666667</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>153.3166667</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>806</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>3318.2</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>250.6333333</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>153.5666667</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>46</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>1752</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>4097.533333</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>260.75</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>71.93333333</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>287</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>347.0333333</v>
-      </c>
-      <c r="AZ10" t="n">
-        <v>41.75</v>
-      </c>
-      <c r="BA10" t="n">
-        <v>6</v>
-      </c>
-      <c r="BB10" t="n">
-        <v>33</v>
-      </c>
-      <c r="BC10" t="n">
-        <v>1443</v>
-      </c>
-      <c r="BD10" t="n">
-        <v>1207.383333</v>
-      </c>
-      <c r="BE10" t="n">
-        <v>34.26666667</v>
-      </c>
-      <c r="BF10" t="n">
-        <v>419</v>
-      </c>
-      <c r="BG10" t="n">
-        <v>25455</v>
-      </c>
-      <c r="BH10" t="n">
-        <v>29619.38</v>
-      </c>
-      <c r="BI10" t="n">
         <v>1057.1</v>
       </c>
     </row>
